--- a/results/pvalue_OFFSIDES_rare_target_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.029</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.587</t>
+          <t>5.191</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.398</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.301</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.877</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.313</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.122</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
